--- a/Colors Email Merge/21-22 T3 True Colors(TM) Communication Survey ANALYZER.xlsx
+++ b/Colors Email Merge/21-22 T3 True Colors(TM) Communication Survey ANALYZER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnWeis\Documents\GitHub\Misc\Colors Email Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4495FDE-3A43-4922-9E0E-FF76BF864BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086FE04-2EF6-43E6-8E49-7927FF585FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38370" yWindow="-14520" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-14520" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="234">
   <si>
     <t>1.</t>
   </si>
@@ -681,6 +681,72 @@
   </si>
   <si>
     <t>Lupita Cortes</t>
+  </si>
+  <si>
+    <t>gilbert530@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Gilbert Mendoza</t>
+  </si>
+  <si>
+    <t>ayden705@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Ayden Eves</t>
+  </si>
+  <si>
+    <t>yizel309@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Yizel Zayas</t>
+  </si>
+  <si>
+    <t>lucia276@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Lucia Robles</t>
+  </si>
+  <si>
+    <t>wyatt381@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Wyatt Edwards</t>
+  </si>
+  <si>
+    <t>sayda106@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Sayda Meras Alvarez</t>
+  </si>
+  <si>
+    <t>andres902@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Andres Cabezas</t>
+  </si>
+  <si>
+    <t>cezar960@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Cezar Sanchez Penaloza</t>
+  </si>
+  <si>
+    <t>celene340@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Celene Ortiz Jimenez</t>
+  </si>
+  <si>
+    <t>tonkra001@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Tonkra Phomtanaphun</t>
+  </si>
+  <si>
+    <t>bennett352@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Bennett McDonald</t>
   </si>
 </sst>
 </file>
@@ -728,11 +794,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -830,8 +900,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y53" totalsRowShown="0">
-  <autoFilter ref="A1:Y53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y67" totalsRowShown="0">
+  <autoFilter ref="A1:Y67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="23"/>
@@ -1249,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,6 +5669,1154 @@
       <c r="Y53" s="5">
         <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>196</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44636.922256944403</v>
+      </c>
+      <c r="C54" s="6">
+        <v>44636.923379629603</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U54" s="7">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H54,COLORLOOKUP,2),VLOOKUP(I54,COLORLOOKUP,2),VLOOKUP(J54,COLORLOOKUP,2),VLOOKUP(K54,COLORLOOKUP,2),VLOOKUP(L54,COLORLOOKUP,2),VLOOKUP(M54,COLORLOOKUP,2),VLOOKUP(N54,COLORLOOKUP,2),VLOOKUP(O54,COLORLOOKUP,2),VLOOKUP(P54,COLORLOOKUP,2),VLOOKUP(Q54,COLORLOOKUP,2),VLOOKUP(R54,COLORLOOKUP,2),VLOOKUP(S54,COLORLOOKUP,2),VLOOKUP(T54,COLORLOOKUP,2))</f>
+        <v>3040206</v>
+      </c>
+      <c r="V54" s="7">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="W54" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="X54" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y54" s="7">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>197</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44637.372731481497</v>
+      </c>
+      <c r="C55" s="6">
+        <v>44637.373263888898</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U55" s="7">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H55,COLORLOOKUP,2),VLOOKUP(I55,COLORLOOKUP,2),VLOOKUP(J55,COLORLOOKUP,2),VLOOKUP(K55,COLORLOOKUP,2),VLOOKUP(L55,COLORLOOKUP,2),VLOOKUP(M55,COLORLOOKUP,2),VLOOKUP(N55,COLORLOOKUP,2),VLOOKUP(O55,COLORLOOKUP,2),VLOOKUP(P55,COLORLOOKUP,2),VLOOKUP(Q55,COLORLOOKUP,2),VLOOKUP(R55,COLORLOOKUP,2),VLOOKUP(S55,COLORLOOKUP,2),VLOOKUP(T55,COLORLOOKUP,2))</f>
+        <v>5020305</v>
+      </c>
+      <c r="V55" s="7">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W55" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="X55" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y55" s="7">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>198</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44637.418356481503</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44637.4198032407</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U56" s="7">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H56,COLORLOOKUP,2),VLOOKUP(I56,COLORLOOKUP,2),VLOOKUP(J56,COLORLOOKUP,2),VLOOKUP(K56,COLORLOOKUP,2),VLOOKUP(L56,COLORLOOKUP,2),VLOOKUP(M56,COLORLOOKUP,2),VLOOKUP(N56,COLORLOOKUP,2),VLOOKUP(O56,COLORLOOKUP,2),VLOOKUP(P56,COLORLOOKUP,2),VLOOKUP(Q56,COLORLOOKUP,2),VLOOKUP(R56,COLORLOOKUP,2),VLOOKUP(S56,COLORLOOKUP,2),VLOOKUP(T56,COLORLOOKUP,2))</f>
+        <v>1000311</v>
+      </c>
+      <c r="V56" s="7">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="W56" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y56" s="7">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>199</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44637.435902777797</v>
+      </c>
+      <c r="C57" s="6">
+        <v>44637.4368287037</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U57" s="7">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H57,COLORLOOKUP,2),VLOOKUP(I57,COLORLOOKUP,2),VLOOKUP(J57,COLORLOOKUP,2),VLOOKUP(K57,COLORLOOKUP,2),VLOOKUP(L57,COLORLOOKUP,2),VLOOKUP(M57,COLORLOOKUP,2),VLOOKUP(N57,COLORLOOKUP,2),VLOOKUP(O57,COLORLOOKUP,2),VLOOKUP(P57,COLORLOOKUP,2),VLOOKUP(Q57,COLORLOOKUP,2),VLOOKUP(R57,COLORLOOKUP,2),VLOOKUP(S57,COLORLOOKUP,2),VLOOKUP(T57,COLORLOOKUP,2))</f>
+        <v>8010501</v>
+      </c>
+      <c r="V57" s="7">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>8</v>
+      </c>
+      <c r="W57" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="X57" s="7">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y57" s="7">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>200</v>
+      </c>
+      <c r="B58" s="8">
+        <v>44637.447337963</v>
+      </c>
+      <c r="C58" s="8">
+        <v>44637.448634259301</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U58" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H58,COLORLOOKUP,2),VLOOKUP(I58,COLORLOOKUP,2),VLOOKUP(J58,COLORLOOKUP,2),VLOOKUP(K58,COLORLOOKUP,2),VLOOKUP(L58,COLORLOOKUP,2),VLOOKUP(M58,COLORLOOKUP,2),VLOOKUP(N58,COLORLOOKUP,2),VLOOKUP(O58,COLORLOOKUP,2),VLOOKUP(P58,COLORLOOKUP,2),VLOOKUP(Q58,COLORLOOKUP,2),VLOOKUP(R58,COLORLOOKUP,2),VLOOKUP(S58,COLORLOOKUP,2),VLOOKUP(T58,COLORLOOKUP,2))</f>
+        <v>12000102</v>
+      </c>
+      <c r="V58" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>12</v>
+      </c>
+      <c r="W58" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>201</v>
+      </c>
+      <c r="B59" s="8">
+        <v>44637.448449074102</v>
+      </c>
+      <c r="C59" s="8">
+        <v>44637.450115740699</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U59" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H59,COLORLOOKUP,2),VLOOKUP(I59,COLORLOOKUP,2),VLOOKUP(J59,COLORLOOKUP,2),VLOOKUP(K59,COLORLOOKUP,2),VLOOKUP(L59,COLORLOOKUP,2),VLOOKUP(M59,COLORLOOKUP,2),VLOOKUP(N59,COLORLOOKUP,2),VLOOKUP(O59,COLORLOOKUP,2),VLOOKUP(P59,COLORLOOKUP,2),VLOOKUP(Q59,COLORLOOKUP,2),VLOOKUP(R59,COLORLOOKUP,2),VLOOKUP(S59,COLORLOOKUP,2),VLOOKUP(T59,COLORLOOKUP,2))</f>
+        <v>2070204</v>
+      </c>
+      <c r="V59" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="W59" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>7</v>
+      </c>
+      <c r="X59" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y59" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>202</v>
+      </c>
+      <c r="B60" s="8">
+        <v>44637.479375000003</v>
+      </c>
+      <c r="C60" s="8">
+        <v>44637.479884259301</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U60" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H60,COLORLOOKUP,2),VLOOKUP(I60,COLORLOOKUP,2),VLOOKUP(J60,COLORLOOKUP,2),VLOOKUP(K60,COLORLOOKUP,2),VLOOKUP(L60,COLORLOOKUP,2),VLOOKUP(M60,COLORLOOKUP,2),VLOOKUP(N60,COLORLOOKUP,2),VLOOKUP(O60,COLORLOOKUP,2),VLOOKUP(P60,COLORLOOKUP,2),VLOOKUP(Q60,COLORLOOKUP,2),VLOOKUP(R60,COLORLOOKUP,2),VLOOKUP(S60,COLORLOOKUP,2),VLOOKUP(T60,COLORLOOKUP,2))</f>
+        <v>6030501</v>
+      </c>
+      <c r="V60" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>6</v>
+      </c>
+      <c r="W60" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X60" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y60" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>203</v>
+      </c>
+      <c r="B61" s="8">
+        <v>44637.494918981502</v>
+      </c>
+      <c r="C61" s="8">
+        <v>44637.496296296304</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U61" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H61,COLORLOOKUP,2),VLOOKUP(I61,COLORLOOKUP,2),VLOOKUP(J61,COLORLOOKUP,2),VLOOKUP(K61,COLORLOOKUP,2),VLOOKUP(L61,COLORLOOKUP,2),VLOOKUP(M61,COLORLOOKUP,2),VLOOKUP(N61,COLORLOOKUP,2),VLOOKUP(O61,COLORLOOKUP,2),VLOOKUP(P61,COLORLOOKUP,2),VLOOKUP(Q61,COLORLOOKUP,2),VLOOKUP(R61,COLORLOOKUP,2),VLOOKUP(S61,COLORLOOKUP,2),VLOOKUP(T61,COLORLOOKUP,2))</f>
+        <v>3030603</v>
+      </c>
+      <c r="V61" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="W61" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X61" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>6</v>
+      </c>
+      <c r="Y61" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>204</v>
+      </c>
+      <c r="B62" s="8">
+        <v>44637.516909722202</v>
+      </c>
+      <c r="C62" s="8">
+        <v>44637.518148148098</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U62" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H62,COLORLOOKUP,2),VLOOKUP(I62,COLORLOOKUP,2),VLOOKUP(J62,COLORLOOKUP,2),VLOOKUP(K62,COLORLOOKUP,2),VLOOKUP(L62,COLORLOOKUP,2),VLOOKUP(M62,COLORLOOKUP,2),VLOOKUP(N62,COLORLOOKUP,2),VLOOKUP(O62,COLORLOOKUP,2),VLOOKUP(P62,COLORLOOKUP,2),VLOOKUP(Q62,COLORLOOKUP,2),VLOOKUP(R62,COLORLOOKUP,2),VLOOKUP(S62,COLORLOOKUP,2),VLOOKUP(T62,COLORLOOKUP,2))</f>
+        <v>5030007</v>
+      </c>
+      <c r="V62" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W62" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X62" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>205</v>
+      </c>
+      <c r="B63" s="8">
+        <v>44637.527974536999</v>
+      </c>
+      <c r="C63" s="8">
+        <v>44637.529166666704</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="U63" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H63,COLORLOOKUP,2),VLOOKUP(I63,COLORLOOKUP,2),VLOOKUP(J63,COLORLOOKUP,2),VLOOKUP(K63,COLORLOOKUP,2),VLOOKUP(L63,COLORLOOKUP,2),VLOOKUP(M63,COLORLOOKUP,2),VLOOKUP(N63,COLORLOOKUP,2),VLOOKUP(O63,COLORLOOKUP,2),VLOOKUP(P63,COLORLOOKUP,2),VLOOKUP(Q63,COLORLOOKUP,2),VLOOKUP(R63,COLORLOOKUP,2),VLOOKUP(S63,COLORLOOKUP,2),VLOOKUP(T63,COLORLOOKUP,2))</f>
+        <v>4020405</v>
+      </c>
+      <c r="V63" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="W63" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="X63" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y63" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>206</v>
+      </c>
+      <c r="B64" s="8">
+        <v>44637.537233796298</v>
+      </c>
+      <c r="C64" s="8">
+        <v>44637.538449074098</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U64" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H64,COLORLOOKUP,2),VLOOKUP(I64,COLORLOOKUP,2),VLOOKUP(J64,COLORLOOKUP,2),VLOOKUP(K64,COLORLOOKUP,2),VLOOKUP(L64,COLORLOOKUP,2),VLOOKUP(M64,COLORLOOKUP,2),VLOOKUP(N64,COLORLOOKUP,2),VLOOKUP(O64,COLORLOOKUP,2),VLOOKUP(P64,COLORLOOKUP,2),VLOOKUP(Q64,COLORLOOKUP,2),VLOOKUP(R64,COLORLOOKUP,2),VLOOKUP(S64,COLORLOOKUP,2),VLOOKUP(T64,COLORLOOKUP,2))</f>
+        <v>3040008</v>
+      </c>
+      <c r="V64" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="W64" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="X64" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>207</v>
+      </c>
+      <c r="B65" s="8">
+        <v>44637.5374421296</v>
+      </c>
+      <c r="C65" s="8">
+        <v>44637.539074074099</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U65" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H65,COLORLOOKUP,2),VLOOKUP(I65,COLORLOOKUP,2),VLOOKUP(J65,COLORLOOKUP,2),VLOOKUP(K65,COLORLOOKUP,2),VLOOKUP(L65,COLORLOOKUP,2),VLOOKUP(M65,COLORLOOKUP,2),VLOOKUP(N65,COLORLOOKUP,2),VLOOKUP(O65,COLORLOOKUP,2),VLOOKUP(P65,COLORLOOKUP,2),VLOOKUP(Q65,COLORLOOKUP,2),VLOOKUP(R65,COLORLOOKUP,2),VLOOKUP(S65,COLORLOOKUP,2),VLOOKUP(T65,COLORLOOKUP,2))</f>
+        <v>5050302</v>
+      </c>
+      <c r="V65" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W65" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="X65" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y65" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>208</v>
+      </c>
+      <c r="B66" s="8">
+        <v>44637.538240740701</v>
+      </c>
+      <c r="C66" s="8">
+        <v>44637.540509259299</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U66" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H66,COLORLOOKUP,2),VLOOKUP(I66,COLORLOOKUP,2),VLOOKUP(J66,COLORLOOKUP,2),VLOOKUP(K66,COLORLOOKUP,2),VLOOKUP(L66,COLORLOOKUP,2),VLOOKUP(M66,COLORLOOKUP,2),VLOOKUP(N66,COLORLOOKUP,2),VLOOKUP(O66,COLORLOOKUP,2),VLOOKUP(P66,COLORLOOKUP,2),VLOOKUP(Q66,COLORLOOKUP,2),VLOOKUP(R66,COLORLOOKUP,2),VLOOKUP(S66,COLORLOOKUP,2),VLOOKUP(T66,COLORLOOKUP,2))</f>
+        <v>6030204</v>
+      </c>
+      <c r="V66" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>6</v>
+      </c>
+      <c r="W66" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X66" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y66" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>209</v>
+      </c>
+      <c r="B67" s="8">
+        <v>44637.541076388901</v>
+      </c>
+      <c r="C67" s="8">
+        <v>44637.542268518497</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U67" s="9">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H67,COLORLOOKUP,2),VLOOKUP(I67,COLORLOOKUP,2),VLOOKUP(J67,COLORLOOKUP,2),VLOOKUP(K67,COLORLOOKUP,2),VLOOKUP(L67,COLORLOOKUP,2),VLOOKUP(M67,COLORLOOKUP,2),VLOOKUP(N67,COLORLOOKUP,2),VLOOKUP(O67,COLORLOOKUP,2),VLOOKUP(P67,COLORLOOKUP,2),VLOOKUP(Q67,COLORLOOKUP,2),VLOOKUP(R67,COLORLOOKUP,2),VLOOKUP(S67,COLORLOOKUP,2),VLOOKUP(T67,COLORLOOKUP,2))</f>
+        <v>5060202</v>
+      </c>
+      <c r="V67" s="9">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W67" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>6</v>
+      </c>
+      <c r="X67" s="9">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y67" s="9">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Colors Email Merge/21-22 T3 True Colors(TM) Communication Survey ANALYZER.xlsx
+++ b/Colors Email Merge/21-22 T3 True Colors(TM) Communication Survey ANALYZER.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnWeis\Documents\GitHub\Misc\Colors Email Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086FE04-2EF6-43E6-8E49-7927FF585FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8210F8-54EE-475F-A81F-E780D9731D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-14520" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-14520" windowWidth="18240" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="3" r:id="rId1"/>
     <sheet name="PASTE HERE" sheetId="1" r:id="rId2"/>
     <sheet name="COLORLOOKUP" sheetId="2" r:id="rId3"/>
+    <sheet name="GRAND TTL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="BLUEVALUE">COLORLOOKUP!$J$4</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="245">
   <si>
     <t>1.</t>
   </si>
@@ -747,6 +748,39 @@
   </si>
   <si>
     <t>Bennett McDonald</t>
+  </si>
+  <si>
+    <t>jorge652@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Jorge Serrano</t>
+  </si>
+  <si>
+    <t>pedro950@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Pedro Saenz</t>
+  </si>
+  <si>
+    <t>jorge718@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Jorge Barragan Villalobos</t>
+  </si>
+  <si>
+    <t>briana948@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Briana Hernandez</t>
+  </si>
+  <si>
+    <t>leslie542@students.psd1.org</t>
+  </si>
+  <si>
+    <t>Leslie Ruelas Aguilar</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -756,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,13 +806,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -794,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -805,6 +871,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,8 +984,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y67" totalsRowShown="0">
-  <autoFilter ref="A1:Y67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y72" totalsRowShown="0">
+  <autoFilter ref="A1:Y72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="23"/>
@@ -1319,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,6 +6901,416 @@
       <c r="Y67" s="9">
         <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>210</v>
+      </c>
+      <c r="B68" s="10">
+        <v>44638.405254629601</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44638.4070601852</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U68" s="11">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H68,COLORLOOKUP,2),VLOOKUP(I68,COLORLOOKUP,2),VLOOKUP(J68,COLORLOOKUP,2),VLOOKUP(K68,COLORLOOKUP,2),VLOOKUP(L68,COLORLOOKUP,2),VLOOKUP(M68,COLORLOOKUP,2),VLOOKUP(N68,COLORLOOKUP,2),VLOOKUP(O68,COLORLOOKUP,2),VLOOKUP(P68,COLORLOOKUP,2),VLOOKUP(Q68,COLORLOOKUP,2),VLOOKUP(R68,COLORLOOKUP,2),VLOOKUP(S68,COLORLOOKUP,2),VLOOKUP(T68,COLORLOOKUP,2))</f>
+        <v>7030401</v>
+      </c>
+      <c r="V68" s="11">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>7</v>
+      </c>
+      <c r="W68" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X68" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="11">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>211</v>
+      </c>
+      <c r="B69" s="10">
+        <v>44638.402696759302</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44638.410590277803</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U69" s="11">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H69,COLORLOOKUP,2),VLOOKUP(I69,COLORLOOKUP,2),VLOOKUP(J69,COLORLOOKUP,2),VLOOKUP(K69,COLORLOOKUP,2),VLOOKUP(L69,COLORLOOKUP,2),VLOOKUP(M69,COLORLOOKUP,2),VLOOKUP(N69,COLORLOOKUP,2),VLOOKUP(O69,COLORLOOKUP,2),VLOOKUP(P69,COLORLOOKUP,2),VLOOKUP(Q69,COLORLOOKUP,2),VLOOKUP(R69,COLORLOOKUP,2),VLOOKUP(S69,COLORLOOKUP,2),VLOOKUP(T69,COLORLOOKUP,2))</f>
+        <v>5060103</v>
+      </c>
+      <c r="V69" s="11">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W69" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>6</v>
+      </c>
+      <c r="X69" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y69" s="11">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>212</v>
+      </c>
+      <c r="B70" s="10">
+        <v>44642.588043981501</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44642.590196759302</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U70" s="11">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H70,COLORLOOKUP,2),VLOOKUP(I70,COLORLOOKUP,2),VLOOKUP(J70,COLORLOOKUP,2),VLOOKUP(K70,COLORLOOKUP,2),VLOOKUP(L70,COLORLOOKUP,2),VLOOKUP(M70,COLORLOOKUP,2),VLOOKUP(N70,COLORLOOKUP,2),VLOOKUP(O70,COLORLOOKUP,2),VLOOKUP(P70,COLORLOOKUP,2),VLOOKUP(Q70,COLORLOOKUP,2),VLOOKUP(R70,COLORLOOKUP,2),VLOOKUP(S70,COLORLOOKUP,2),VLOOKUP(T70,COLORLOOKUP,2))</f>
+        <v>5010108</v>
+      </c>
+      <c r="V70" s="11">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W70" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="X70" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y70" s="11">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>213</v>
+      </c>
+      <c r="B71" s="10">
+        <v>44642.817465277803</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44642.819444444402</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U71" s="11">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H71,COLORLOOKUP,2),VLOOKUP(I71,COLORLOOKUP,2),VLOOKUP(J71,COLORLOOKUP,2),VLOOKUP(K71,COLORLOOKUP,2),VLOOKUP(L71,COLORLOOKUP,2),VLOOKUP(M71,COLORLOOKUP,2),VLOOKUP(N71,COLORLOOKUP,2),VLOOKUP(O71,COLORLOOKUP,2),VLOOKUP(P71,COLORLOOKUP,2),VLOOKUP(Q71,COLORLOOKUP,2),VLOOKUP(R71,COLORLOOKUP,2),VLOOKUP(S71,COLORLOOKUP,2),VLOOKUP(T71,COLORLOOKUP,2))</f>
+        <v>3030108</v>
+      </c>
+      <c r="V71" s="11">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="W71" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X71" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y71" s="11">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>214</v>
+      </c>
+      <c r="B72" s="10">
+        <v>44643.584074074097</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44643.585520833301</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T72" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U72" s="11">
+        <f>SUM(VLOOKUP(Table1[[#This Row],[Which word do you like the most?]],COLORLOOKUP,2),VLOOKUP(Table1[[#This Row],[Which word do you like the most?2]],COLORLOOKUP,2),VLOOKUP(H72,COLORLOOKUP,2),VLOOKUP(I72,COLORLOOKUP,2),VLOOKUP(J72,COLORLOOKUP,2),VLOOKUP(K72,COLORLOOKUP,2),VLOOKUP(L72,COLORLOOKUP,2),VLOOKUP(M72,COLORLOOKUP,2),VLOOKUP(N72,COLORLOOKUP,2),VLOOKUP(O72,COLORLOOKUP,2),VLOOKUP(P72,COLORLOOKUP,2),VLOOKUP(Q72,COLORLOOKUP,2),VLOOKUP(R72,COLORLOOKUP,2),VLOOKUP(S72,COLORLOOKUP,2),VLOOKUP(T72,COLORLOOKUP,2))</f>
+        <v>5030403</v>
+      </c>
+      <c r="V72" s="11">
+        <f>INT(Table1[[#This Row],[Total Score]]/ORANGEVALUE)</f>
+        <v>5</v>
+      </c>
+      <c r="W72" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE)/GOLDVALUE)</f>
+        <v>3</v>
+      </c>
+      <c r="X72" s="11">
+        <f>INT((Table1[[#This Row],[Total Score]]-Table1[[#This Row],[Orange]]*ORANGEVALUE-Table1[[#This Row],[Gold]]*GOLDVALUE)/BLUEVALUE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y72" s="11">
+        <f>MOD(Table1[[#This Row],[Total Score]],BLUEVALUE)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7447,60 +7941,61 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Teachers xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <TeamsChannelId xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Math_Settings xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Owner xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Self_Registration_Enabled0 xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <NotebookType xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <FolderType xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Students xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <AppVersion xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Teachers xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Invited_Students xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Templates xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <CultureName xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <Distribution_Groups xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-    <LMS_Mappings xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC6D1F-65C0-4B30-8955-17F9C09EF7FC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="12">
+        <f>SUM('PASTE HERE'!V:V)</f>
+        <v>306</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUM('PASTE HERE'!W:W)</f>
+        <v>206</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUM('PASTE HERE'!X:X)</f>
+        <v>261</v>
+      </c>
+      <c r="E2" s="12">
+        <f>SUM('PASTE HERE'!Y:Y)</f>
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048092BA08DAC5549BEE790AADADC8D2B" ma:contentTypeVersion="36" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cbafc17fb7897ed017f328dc2756817">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aaf555d5-5208-430c-b77f-e194df42251a" xmlns:ns4="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d82222b54f5f3bf17ce466555ad3588f" ns3:_="" ns4:_="">
     <xsd:import namespace="aaf555d5-5208-430c-b77f-e194df42251a"/>
@@ -7929,7 +8424,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7938,17 +8433,60 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181F7ADB-7550-44E5-A7C0-CF197A93DA3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fde7ef4d-68fc-48fb-9961-50d9d93c5b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Teachers xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <TeamsChannelId xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Math_Settings xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Owner xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Self_Registration_Enabled0 xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <NotebookType xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <FolderType xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Students xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <AppVersion xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Teachers xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Students xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Templates xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <CultureName xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <Distribution_Groups xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+    <LMS_Mappings xmlns="fde7ef4d-68fc-48fb-9961-50d9d93c5b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87116951-AA34-4065-83C8-C144FF2ADBC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7967,10 +8505,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC5B9A7-6932-417F-ACE8-1F9F2E45EDC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181F7ADB-7550-44E5-A7C0-CF197A93DA3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fde7ef4d-68fc-48fb-9961-50d9d93c5b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>